--- a/xlsx/政府_intext.xlsx
+++ b/xlsx/政府_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
   <si>
     <t>政府</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -275,9 +275,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
   </si>
   <si>
-    <t>政体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -335,9 +332,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神权政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
   </si>
   <si>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -533,19 +527,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>行政權</t>
+    <t>行政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8A%A1%E5%91%98</t>
@@ -665,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>分權</t>
+    <t>分权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
@@ -761,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6</t>
   </si>
   <si>
-    <t>代議制</t>
+    <t>代议制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
@@ -851,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>五權分立</t>
+    <t>五权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -899,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plato%27s_five_regimes</t>
@@ -929,9 +923,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%AD%E4%B8%BB</t>
   </si>
   <si>
@@ -965,21 +956,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%B6%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>专制主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>獨裁政體</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF</t>
   </si>
   <si>
@@ -995,25 +977,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>選舉君主制</t>
+    <t>选举君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>酋長國</t>
+    <t>酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦君主制</t>
+    <t>联邦君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>銀行專政</t>
+    <t>银行专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%8E%8B%E5%9B%BD</t>
@@ -1025,33 +1007,27 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%99%E5%B8%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>裙帶關係</t>
+    <t>裙带关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E7%9B%9C%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>竊盜統治</t>
+    <t>窃盗统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E6%84%9A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>眾愚政治</t>
+    <t>众愚政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>威权主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Demarchy</t>
   </si>
   <si>
@@ -1067,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E6%B0%91%E4%B8%BB</t>
@@ -1091,31 +1067,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>無政府狀態</t>
+    <t>无政府状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>香蕉共和國</t>
+    <t>香蕉共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1%E6%80%9D%E6%83%B3</t>
   </si>
   <si>
-    <t>毛澤東思想</t>
+    <t>毛泽东思想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Democratic_republic</t>
@@ -1133,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦共和制</t>
+    <t>联邦共和制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1145,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Band_society</t>
@@ -1169,9 +1145,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
   </si>
   <si>
@@ -1253,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2</t>
   </si>
   <si>
-    <t>國防</t>
+    <t>国防</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1319,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%83%BD%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
@@ -1331,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政體列表</t>
+    <t>各国政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -1343,9 +1316,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -1355,15 +1325,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
   </si>
   <si>
@@ -1373,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>一黨執政</t>
+    <t>一党执政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%A4%BE%E5%88%B6</t>
@@ -1397,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%95%E9%99%BD%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>夕陽政府</t>
+    <t>夕阳政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AE%B6</t>
@@ -1427,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B_(%E6%94%BF%E6%B2%BB)</t>
   </si>
   <si>
-    <t>國 (政治)</t>
+    <t>国 (政治)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C</t>
@@ -1439,19 +1403,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E4%B8%BB%E5%B0%8E</t>
   </si>
   <si>
-    <t>行政主導</t>
+    <t>行政主导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E4%B8%80%E9%AB%94</t>
   </si>
   <si>
-    <t>行政一體</t>
+    <t>行政一体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
@@ -1463,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94</t>
@@ -1475,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>政府間主義</t>
+    <t>政府间主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -1493,13 +1457,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
@@ -1523,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>全球主義</t>
+    <t>全球主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
@@ -1577,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -1613,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>突厥議會</t>
+    <t>突厥议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
@@ -1661,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
@@ -1727,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1745,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1799,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>中美洲統合體</t>
+    <t>中美洲统合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -1817,13 +1781,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
@@ -1877,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲聯盟基本條約</t>
+    <t>欧洲联盟基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -1889,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
@@ -1913,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1949,19 +1913,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐羅巴合眾國</t>
+    <t>欧罗巴合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>東亞共同體</t>
+    <t>东亚共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>中華聯邦</t>
+    <t>中华联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -2009,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%96%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>安薩里</t>
+    <t>安萨里</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Saul_Alinsky</t>
@@ -2027,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -2087,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%B4%8D%E5%BE%B7</t>
   </si>
   <si>
-    <t>波納德</t>
+    <t>波纳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BA%B3%E5%BE%B7%C2%B7%E9%B2%8D%E6%A1%91%E8%91%B5</t>
@@ -2387,7 +2351,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%A5%A7%E7%89%B9%E5%98%89%C2%B7%E4%BC%8A%C2%B7%E5%8A%A0%E5%A1%9E%E7%89%B9</t>
   </si>
   <si>
-    <t>何塞·奧特嘉·伊·加塞特</t>
+    <t>何塞·奥特嘉·伊·加塞特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BC%97%E9%9B%B7%E5%A4%9A%C2%B7%E5%B8%95%E7%B4%AF%E6%89%98</t>
@@ -2405,9 +2369,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
   </si>
   <si>
-    <t>柏拉图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%B3%A2%E6%99%AE%E5%B0%94</t>
   </si>
   <si>
@@ -2429,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%A7%E6%96%AF%E7%89%B9%C2%B7%E5%8B%92%E5%8D%97</t>
   </si>
   <si>
-    <t>歐內斯特·勒南</t>
+    <t>欧内斯特·勒南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -2513,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E6%96%BD%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>麥克斯·施蒂納</t>
+    <t>麦克斯·施蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A5%C2%B7%E6%96%BD%E7%89%B9%E5%8A%B3%E6%96%AF</t>
@@ -2549,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E7%B1%B3%C2%B7%E7%B6%AD%E9%9F%8B%E5%8D%A1%E5%8D%97%E9%81%94</t>
   </si>
   <si>
-    <t>斯瓦米·維韋卡南達</t>
+    <t>斯瓦米·维韦卡南达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Michael_Walzer</t>
@@ -2561,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E6%B2%83%E7%86%B1%C2%B7%E9%BD%8A%E6%BE%A4%E5%85%8B</t>
   </si>
   <si>
-    <t>斯拉沃熱·齊澤克</t>
+    <t>斯拉沃热·齐泽克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E4%B8%BB%E4%B9%89</t>
@@ -2639,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -2669,7 +2630,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E4%B8%8D%E6%9C%8D%E4%BB%8E</t>
@@ -2687,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%91%BD</t>
@@ -2723,7 +2684,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -2783,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4378,7 +4339,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4404,10 +4365,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -4433,10 +4394,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4462,10 +4423,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4491,10 +4452,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4549,10 +4510,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4578,10 +4539,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -4607,10 +4568,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -4636,10 +4597,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -4665,10 +4626,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4694,10 +4655,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4723,10 +4684,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -4752,10 +4713,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4781,10 +4742,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4810,10 +4771,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
@@ -4839,10 +4800,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4868,10 +4829,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4897,10 +4858,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4926,10 +4887,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4955,10 +4916,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4984,10 +4945,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>9</v>
@@ -5013,10 +4974,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5042,10 +5003,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5071,10 +5032,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -5100,10 +5061,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5129,10 +5090,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5158,10 +5119,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -5187,10 +5148,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -5216,10 +5177,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -5245,10 +5206,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5274,10 +5235,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -5303,10 +5264,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5332,10 +5293,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5361,10 +5322,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5390,10 +5351,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5419,10 +5380,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5448,10 +5409,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>8</v>
@@ -5477,10 +5438,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5506,10 +5467,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -5535,10 +5496,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5564,10 +5525,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5593,10 +5554,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -5622,10 +5583,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>7</v>
@@ -5651,10 +5612,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>22</v>
@@ -5680,10 +5641,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5709,10 +5670,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5738,10 +5699,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5767,10 +5728,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -5796,10 +5757,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5825,10 +5786,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5854,10 +5815,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>19</v>
@@ -5883,10 +5844,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5912,10 +5873,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5941,10 +5902,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5970,10 +5931,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5999,10 +5960,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6028,10 +5989,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -6057,10 +6018,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>26</v>
@@ -6086,10 +6047,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6115,10 +6076,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6144,10 +6105,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6173,10 +6134,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>50</v>
@@ -6202,10 +6163,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6231,10 +6192,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>7</v>
@@ -6289,10 +6250,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -6347,10 +6308,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6376,10 +6337,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6405,10 +6366,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>16</v>
@@ -6434,10 +6395,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>11</v>
@@ -6463,10 +6424,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>11</v>
@@ -6492,10 +6453,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6521,10 +6482,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -6550,10 +6511,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6579,10 +6540,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6608,10 +6569,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6637,10 +6598,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6666,10 +6627,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -6695,10 +6656,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6724,10 +6685,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6753,10 +6714,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6782,10 +6743,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6811,10 +6772,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6840,10 +6801,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6869,10 +6830,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -6898,10 +6859,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6927,10 +6888,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>15</v>
@@ -6956,10 +6917,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>9</v>
@@ -6985,10 +6946,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -7014,10 +6975,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7043,10 +7004,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7072,10 +7033,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7101,10 +7062,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7130,10 +7091,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7159,10 +7120,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7188,10 +7149,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7217,10 +7178,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7246,10 +7207,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7275,10 +7236,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7304,10 +7265,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7333,10 +7294,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>8</v>
@@ -7362,10 +7323,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7391,10 +7352,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -7420,10 +7381,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7449,10 +7410,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7478,10 +7439,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7507,10 +7468,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7536,10 +7497,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7565,10 +7526,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7594,10 +7555,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7623,10 +7584,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7681,10 +7642,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7710,10 +7671,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7739,10 +7700,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7768,10 +7729,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7797,10 +7758,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7826,10 +7787,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -7855,10 +7816,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>52</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7884,10 +7845,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>54</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7913,10 +7874,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7942,10 +7903,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7971,10 +7932,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8000,10 +7961,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8029,10 +7990,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8058,10 +8019,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8087,10 +8048,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8116,10 +8077,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8145,10 +8106,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8174,10 +8135,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8203,10 +8164,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8232,10 +8193,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>58</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8261,10 +8222,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8319,10 +8280,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8377,10 +8338,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8406,10 +8367,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8435,10 +8396,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8464,10 +8425,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8493,10 +8454,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8522,10 +8483,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8551,10 +8512,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8580,10 +8541,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8609,10 +8570,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8638,10 +8599,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8667,10 +8628,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8696,10 +8657,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8725,10 +8686,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8754,10 +8715,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8783,10 +8744,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F195" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8812,10 +8773,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8841,10 +8802,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8870,10 +8831,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8899,10 +8860,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8928,10 +8889,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8957,10 +8918,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8986,10 +8947,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9015,10 +8976,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G203" t="n">
         <v>23</v>
@@ -9044,10 +9005,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9073,10 +9034,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>5</v>
@@ -9102,10 +9063,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9131,10 +9092,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9160,10 +9121,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9189,10 +9150,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -9218,10 +9179,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9247,10 +9208,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -9276,10 +9237,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9305,10 +9266,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9334,10 +9295,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9363,10 +9324,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>13</v>
@@ -9392,10 +9353,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9421,10 +9382,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9450,10 +9411,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9479,10 +9440,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9508,10 +9469,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9537,10 +9498,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9566,10 +9527,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9595,10 +9556,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9624,10 +9585,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9653,10 +9614,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9682,10 +9643,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9711,10 +9672,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9740,10 +9701,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>30</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9769,10 +9730,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>18</v>
@@ -9798,10 +9759,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F230" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9856,10 +9817,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>103</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9885,10 +9846,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>101</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9914,10 +9875,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>30</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9943,10 +9904,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9972,10 +9933,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10001,10 +9962,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10030,10 +9991,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10059,10 +10020,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10088,10 +10049,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10117,10 +10078,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10146,10 +10107,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10175,10 +10136,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10204,10 +10165,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F244" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10233,10 +10194,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10291,10 +10252,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10320,10 +10281,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F248" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10349,10 +10310,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G249" t="n">
         <v>5</v>
@@ -10378,10 +10339,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10407,10 +10368,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10436,10 +10397,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10465,10 +10426,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -10494,10 +10455,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10523,10 +10484,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10552,10 +10513,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10581,10 +10542,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10610,10 +10571,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10639,10 +10600,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10668,10 +10629,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10697,10 +10658,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10726,10 +10687,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10755,10 +10716,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>12</v>
@@ -10784,10 +10745,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10813,10 +10774,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10842,10 +10803,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10871,10 +10832,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10900,10 +10861,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10929,10 +10890,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10958,10 +10919,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10987,10 +10948,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11016,10 +10977,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11045,10 +11006,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11074,10 +11035,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11103,10 +11064,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11132,10 +11093,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11161,10 +11122,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11190,10 +11151,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11219,10 +11180,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11248,10 +11209,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11277,10 +11238,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11306,10 +11267,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11335,10 +11296,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11364,10 +11325,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11393,10 +11354,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11422,10 +11383,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11451,10 +11412,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11480,10 +11441,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11509,10 +11470,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11538,10 +11499,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11567,10 +11528,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11596,10 +11557,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11625,10 +11586,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11654,10 +11615,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11683,10 +11644,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11712,10 +11673,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11741,10 +11702,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11770,10 +11731,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11799,10 +11760,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11828,10 +11789,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11857,10 +11818,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11886,10 +11847,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11915,10 +11876,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11944,10 +11905,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11973,10 +11934,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12002,10 +11963,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12031,10 +11992,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12060,10 +12021,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12089,10 +12050,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12118,10 +12079,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12147,10 +12108,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12176,10 +12137,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12205,10 +12166,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12234,10 +12195,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12263,10 +12224,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12292,10 +12253,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -12321,10 +12282,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12350,10 +12311,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12379,10 +12340,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12408,10 +12369,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12437,10 +12398,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12466,10 +12427,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12495,10 +12456,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12524,10 +12485,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12553,10 +12514,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12582,10 +12543,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12611,10 +12572,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12640,10 +12601,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12669,10 +12630,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12698,10 +12659,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12727,10 +12688,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12756,10 +12717,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12785,10 +12746,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12814,10 +12775,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12843,10 +12804,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12872,10 +12833,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12901,10 +12862,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12930,10 +12891,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12959,10 +12920,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12988,10 +12949,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13017,10 +12978,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13046,10 +13007,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13075,10 +13036,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13104,10 +13065,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G344" t="n">
         <v>33</v>
@@ -13133,10 +13094,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13162,10 +13123,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13191,10 +13152,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13220,10 +13181,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13249,10 +13210,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13278,10 +13239,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13307,10 +13268,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13336,10 +13297,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13365,10 +13326,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13394,10 +13355,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13423,10 +13384,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F355" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13452,10 +13413,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F356" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13481,10 +13442,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F357" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13510,10 +13471,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F358" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13539,10 +13500,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F359" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13568,10 +13529,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F360" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13597,10 +13558,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="F361" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13626,10 +13587,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F362" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13655,10 +13616,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="F363" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13684,10 +13645,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13713,10 +13674,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13742,10 +13703,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F366" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13771,10 +13732,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F367" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13800,10 +13761,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F368" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13829,10 +13790,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F369" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13858,10 +13819,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="F370" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13887,10 +13848,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="F371" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13916,10 +13877,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F372" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13945,10 +13906,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F373" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13974,10 +13935,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="F374" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14003,10 +13964,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F375" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14032,10 +13993,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F376" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14061,10 +14022,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F377" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14090,10 +14051,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F378" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14119,10 +14080,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F379" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14148,10 +14109,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F380" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14177,10 +14138,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F381" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14206,10 +14167,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F382" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14235,10 +14196,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F383" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14264,10 +14225,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F384" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14293,10 +14254,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="F385" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14322,10 +14283,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F386" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14351,10 +14312,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F387" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14380,10 +14341,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F388" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14409,10 +14370,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F389" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14438,10 +14399,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F390" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14467,10 +14428,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F391" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14496,10 +14457,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F392" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14525,10 +14486,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F393" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14554,10 +14515,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="F394" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14583,10 +14544,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14612,10 +14573,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14641,10 +14602,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14670,10 +14631,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14699,10 +14660,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F399" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14728,10 +14689,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F400" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14757,10 +14718,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14786,10 +14747,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14815,10 +14776,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14844,10 +14805,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14873,10 +14834,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14902,10 +14863,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14931,10 +14892,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14960,10 +14921,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14989,10 +14950,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15018,10 +14979,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="F410" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15047,10 +15008,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="F411" t="s">
-        <v>796</v>
+        <v>296</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15076,10 +15037,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15105,10 +15066,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15134,10 +15095,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15163,10 +15124,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15192,10 +15153,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15221,10 +15182,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15250,10 +15211,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15279,10 +15240,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15308,10 +15269,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15337,10 +15298,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15366,10 +15327,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15395,10 +15356,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15424,10 +15385,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15453,10 +15414,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15482,10 +15443,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15511,10 +15472,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15540,10 +15501,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15569,10 +15530,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15598,10 +15559,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15627,10 +15588,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15656,10 +15617,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15685,10 +15646,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15714,10 +15675,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15743,10 +15704,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15772,10 +15733,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15801,10 +15762,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15830,10 +15791,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15859,10 +15820,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15888,10 +15849,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15917,10 +15878,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15946,10 +15907,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15975,10 +15936,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16004,10 +15965,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16033,10 +15994,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16062,10 +16023,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16091,10 +16052,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16120,10 +16081,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16149,10 +16110,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F449" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16178,10 +16139,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="F450" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16207,10 +16168,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="F451" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16236,10 +16197,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F452" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16265,10 +16226,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="F453" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16294,10 +16255,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="F454" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16323,10 +16284,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="F455" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16352,10 +16313,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="F456" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16381,10 +16342,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="F457" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16410,10 +16371,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="F458" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16439,10 +16400,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="F459" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16468,10 +16429,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="F460" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16497,10 +16458,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="F461" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -16526,10 +16487,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="F462" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16555,10 +16516,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="F463" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16584,10 +16545,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="F464" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="G464" t="n">
         <v>4</v>
@@ -16613,10 +16574,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="F465" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16642,10 +16603,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="F466" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16671,10 +16632,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="F467" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16700,10 +16661,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="F468" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16729,10 +16690,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="F469" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16758,10 +16719,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="F470" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16787,10 +16748,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="F471" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16816,10 +16777,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="F472" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16845,10 +16806,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="F473" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16874,10 +16835,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="F474" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16903,10 +16864,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="F475" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="G475" t="n">
         <v>3</v>
@@ -16932,10 +16893,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="F476" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>

--- a/xlsx/政府_intext.xlsx
+++ b/xlsx/政府_intext.xlsx
@@ -29,7 +29,7 @@
     <t>官方 (法人)</t>
   </si>
   <si>
-    <t>政策_政策_政治_政府</t>
+    <t>体育运动_体育运动_欧洲议会_政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
